--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>amazonTraceMan</t>
   </si>
@@ -51,7 +51,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20240711 - </t>
+      <t xml:space="preserve">20240822 - </t>
     </r>
     <r>
       <rPr>
@@ -59,7 +59,7 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>杜启良</t>
+      <t>陈东明</t>
     </r>
     <r>
       <rPr>
@@ -71,13 +71,19 @@
     </r>
   </si>
   <si>
-    <t>linzejian</t>
-  </si>
-  <si>
-    <t>PA</t>
+    <t>RATCHROLL</t>
+  </si>
+  <si>
+    <t>20240820 - 陈东明 - 1</t>
   </si>
   <si>
     <t>Motoforti</t>
+  </si>
+  <si>
+    <t>20240817 - 陈东明 - 1</t>
+  </si>
+  <si>
+    <t>TUCKBOLD</t>
   </si>
 </sst>
 </file>
@@ -85,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -110,6 +116,66 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -117,23 +183,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,23 +207,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,66 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,25 +279,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,151 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +471,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,7 +495,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,160 +558,122 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,41 +682,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1018,13 +1024,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="15.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="20.05" customWidth="1"/>
@@ -1077,18 +1083,28 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G2"/>
-      <c r="I2" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>amazonTraceMan</t>
   </si>
@@ -59,7 +59,7 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>陈东明</t>
+      <t>黄孔兰</t>
     </r>
     <r>
       <rPr>
@@ -71,19 +71,7 @@
     </r>
   </si>
   <si>
-    <t>RATCHROLL</t>
-  </si>
-  <si>
-    <t>20240820 - 陈东明 - 1</t>
-  </si>
-  <si>
-    <t>Motoforti</t>
-  </si>
-  <si>
-    <t>20240817 - 陈东明 - 1</t>
-  </si>
-  <si>
-    <t>TUCKBOLD</t>
+    <t>VekAuto</t>
   </si>
 </sst>
 </file>
@@ -91,10 +79,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -115,6 +103,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -123,6 +125,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -131,7 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,21 +156,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,9 +170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +201,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,38 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,181 +267,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,15 +452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +466,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,150 +552,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="20.05" customWidth="1"/>
@@ -1090,22 +1078,6 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>amazonTraceMan</t>
+  </si>
+  <si>
+    <t>ceBillNo</t>
   </si>
   <si>
     <t>batchName</t>
@@ -59,7 +62,7 @@
         <rFont val="Droid Sans Fallback"/>
         <charset val="134"/>
       </rPr>
-      <t>黄孔兰</t>
+      <t>董莹</t>
     </r>
     <r>
       <rPr>
@@ -71,7 +74,10 @@
     </r>
   </si>
   <si>
-    <t>VekAuto</t>
+    <t>垂直专业化</t>
+  </si>
+  <si>
+    <t>20240822 - 董莹 - 2</t>
   </si>
 </sst>
 </file>
@@ -79,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -97,12 +103,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -110,55 +138,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,23 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,36 +248,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,61 +273,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,115 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,44 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,17 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,141 +519,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,27 +1018,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="15.8833333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.05" customWidth="1"/>
-    <col min="3" max="3" width="13.2416666666667" customWidth="1"/>
-    <col min="4" max="4" width="8.1" customWidth="1"/>
-    <col min="5" max="5" width="41.5916666666667" customWidth="1"/>
-    <col min="6" max="6" width="16.4333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.1" customWidth="1"/>
-    <col min="8" max="8" width="10.6" customWidth="1"/>
-    <col min="9" max="9" width="15.1833333333333" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="1" max="2" width="15.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.05" customWidth="1"/>
+    <col min="4" max="4" width="13.2416666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.1" customWidth="1"/>
+    <col min="6" max="6" width="41.5916666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.4333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.1" customWidth="1"/>
+    <col min="9" max="9" width="10.6" customWidth="1"/>
+    <col min="10" max="10" width="15.1833333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,23 +1066,41 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="B2"/>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>amazonTraceMan</t>
   </si>
@@ -50,34 +50,229 @@
     <t>ebayTraceMan</t>
   </si>
   <si>
+    <t>categoryId</t>
+  </si>
+  <si>
     <t>zhongshuwen</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">20240822 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Droid Sans Fallback"/>
-        <charset val="134"/>
-      </rPr>
-      <t>董莹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> - 1</t>
-    </r>
-  </si>
-  <si>
-    <t>垂直专业化</t>
-  </si>
-  <si>
-    <t>20240822 - 董莹 - 2</t>
+    <t>20240722 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240805 - 吴胤君 - 3</t>
+  </si>
+  <si>
+    <t>20240719 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240816 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240723 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240719 - 谭雪聪 - 7</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 3</t>
+  </si>
+  <si>
+    <t>20240816 - 谭雪聪 - 3</t>
+  </si>
+  <si>
+    <t>20240816 - 谭雪聪 - 4</t>
+  </si>
+  <si>
+    <t>20240722 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 4</t>
+  </si>
+  <si>
+    <t>20240731 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240726 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240719 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240801 - 黄孔兰 - 2</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 5</t>
+  </si>
+  <si>
+    <t>20240719 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240805 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240719 - 黄孔兰 - 2</t>
+  </si>
+  <si>
+    <t>20240805 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240719 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240816 - 吴胤君 - 4</t>
+  </si>
+  <si>
+    <t>20240816 - 吴胤君 - 3</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 6</t>
+  </si>
+  <si>
+    <t>20240816 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240726 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240816 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240815 - 谭雪聪 - 3</t>
+  </si>
+  <si>
+    <t>20240815 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240808 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240801 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240725 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240725 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240724 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240724 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240723 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240819 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240819 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240816 - 谭雪聪 - 5</t>
+  </si>
+  <si>
+    <t>20240816 - 谭雪聪 - 6</t>
+  </si>
+  <si>
+    <t>20240815 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240815 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240718 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240808 - 吴胤君 - 1</t>
+  </si>
+  <si>
+    <t>20240808 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240807 - 谭雪聪 - 6</t>
+  </si>
+  <si>
+    <t>20240805 - 吴胤君 - 4</t>
+  </si>
+  <si>
+    <t>20240807 - 谭雪聪 - 5</t>
+  </si>
+  <si>
+    <t>20240731 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240731 - 吴胤君 - 7</t>
+  </si>
+  <si>
+    <t>20240801 - 谭雪聪 - 5</t>
+  </si>
+  <si>
+    <t>20240731 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240725 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240725 - 吴胤君 - 5</t>
+  </si>
+  <si>
+    <t>20240725 - 吴胤君 - 2</t>
+  </si>
+  <si>
+    <t>20240719 - 吴胤君 - 3</t>
+  </si>
+  <si>
+    <t>20240718 - 吴胤君 - 4</t>
+  </si>
+  <si>
+    <t>20240718 - 吴胤君 - 3</t>
+  </si>
+  <si>
+    <t>20240821 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240821 - 黄孔兰 - 2</t>
+  </si>
+  <si>
+    <t>20240821 - 黄孔兰 - 3</t>
+  </si>
+  <si>
+    <t>20240822 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240902 - 吴胤君 - 7</t>
+  </si>
+  <si>
+    <t>20240902 - 吴胤君 - 8</t>
+  </si>
+  <si>
+    <t>20240902 - 吴胤君 - 6</t>
+  </si>
+  <si>
+    <t>20240828 - 黄孔兰 - 1</t>
+  </si>
+  <si>
+    <t>20240918 - 谭雪聪 - 3</t>
+  </si>
+  <si>
+    <t>20240918 - 谭雪聪 - 4</t>
+  </si>
+  <si>
+    <t>20240918 - 谭雪聪 - 2</t>
+  </si>
+  <si>
+    <t>20240918 - 谭雪聪 - 1</t>
+  </si>
+  <si>
+    <t>20240914 - 谭雪聪 - 1</t>
   </si>
 </sst>
 </file>
@@ -85,10 +280,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -103,14 +298,97 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,29 +403,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +413,29 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -168,13 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -182,81 +454,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Droid Sans Fallback"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,181 +470,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,19 +661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +686,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +702,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,46 +747,33 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -584,121 +781,127 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1018,13 +1221,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="15.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="20.05" customWidth="1"/>
@@ -1036,9 +1239,10 @@
     <col min="9" max="9" width="10.6" customWidth="1"/>
     <col min="10" max="10" width="15.1833333333333" customWidth="1"/>
     <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,34 +1276,595 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2"/>
-      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="H2" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="3:9">
-      <c r="C3" t="s">
+      <c r="L2" s="2">
+        <v>24962</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+      <c r="L3" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12">
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2">
+        <v>29579</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>24962</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2">
+        <v>27526</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2">
+        <v>14633</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2">
+        <v>21221</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="2">
+        <v>24962</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="2">
+        <v>26444</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="2">
+        <v>20982</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="2">
+        <v>14642</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2">
+        <v>26254</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2">
+        <v>20982</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="2">
+        <v>14649</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="2">
+        <v>25966</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="2">
+        <v>26629</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="2">
+        <v>26385</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="2">
+        <v>29579</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="2">
+        <v>25966</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="2">
+        <v>26596</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="2">
+        <v>26853</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="2">
+        <v>26258</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="2">
+        <v>26339</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="2">
+        <v>26884</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L36" s="2">
+        <v>26526</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L37" s="2">
+        <v>26238</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L38" s="2">
+        <v>14723</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="2">
+        <v>26148</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="2">
+        <v>26385</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L41" s="2">
+        <v>26831</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="2">
+        <v>21221</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="2">
+        <v>26367</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2">
+        <v>25971</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="C45" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="2">
+        <v>26309</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="C46" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L46" s="2">
+        <v>21860</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="C47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L47" s="2">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L48" s="2">
+        <v>14721</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="2">
+        <v>14723</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L50" s="2">
+        <v>14631</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="2">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" s="2">
+        <v>26684</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" s="2">
+        <v>14188</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L54" s="2">
+        <v>14633</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" s="2">
+        <v>26284</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L56" s="2">
+        <v>26238</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L57" s="2">
+        <v>26492</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L58" s="2">
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L59" s="2">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="2">
+        <v>14639</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L61" s="2">
+        <v>24962</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L62" s="2">
+        <v>14640</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" s="2">
+        <v>26019</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="C64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="2">
+        <v>26019</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" s="2">
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L66" s="3">
+        <v>26885</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L67" s="2">
+        <v>26620</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="C68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L68" s="3">
+        <v>26885</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12">
+      <c r="C69" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L69" s="2">
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="C70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L70" s="2">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L71" s="2">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12">
+      <c r="C72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L72" s="2">
+        <v>14633</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12">
+      <c r="C73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L73" s="2">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12">
+      <c r="C74" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L74" s="2">
+        <v>26444</v>
       </c>
     </row>
   </sheetData>

--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>amazonTraceMan</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>categoryId</t>
-  </si>
-  <si>
-    <t>zhongshuwen</t>
   </si>
   <si>
     <t>20240722 - 吴胤君 - 2</t>
@@ -1223,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1281,11 +1278,9 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="L2" s="2">
         <v>24962</v>
@@ -1293,7 +1288,7 @@
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L3" s="2">
         <v>27518</v>
@@ -1301,7 +1296,7 @@
     </row>
     <row r="4" spans="3:12">
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="2">
         <v>27518</v>
@@ -1309,7 +1304,7 @@
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="2">
         <v>27518</v>
@@ -1317,7 +1312,7 @@
     </row>
     <row r="6" spans="3:12">
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>29579</v>
@@ -1325,7 +1320,7 @@
     </row>
     <row r="7" spans="3:12">
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" s="2">
         <v>24962</v>
@@ -1333,7 +1328,7 @@
     </row>
     <row r="8" spans="3:12">
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>27526</v>
@@ -1341,7 +1336,7 @@
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L9" s="2">
         <v>27518</v>
@@ -1349,7 +1344,7 @@
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" s="2">
         <v>14633</v>
@@ -1357,7 +1352,7 @@
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="2">
         <v>21221</v>
@@ -1365,7 +1360,7 @@
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="2">
         <v>24962</v>
@@ -1373,7 +1368,7 @@
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" s="2">
         <v>27518</v>
@@ -1381,7 +1376,7 @@
     </row>
     <row r="14" spans="3:12">
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
         <v>26444</v>
@@ -1389,7 +1384,7 @@
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L15" s="2">
         <v>27518</v>
@@ -1397,7 +1392,7 @@
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L16" s="2">
         <v>27518</v>
@@ -1405,7 +1400,7 @@
     </row>
     <row r="17" spans="3:12">
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="2">
         <v>20982</v>
@@ -1413,7 +1408,7 @@
     </row>
     <row r="18" spans="3:12">
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="2">
         <v>14642</v>
@@ -1421,7 +1416,7 @@
     </row>
     <row r="19" spans="3:12">
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L19" s="2">
         <v>27518</v>
@@ -1429,7 +1424,7 @@
     </row>
     <row r="20" spans="3:12">
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="2">
         <v>26254</v>
@@ -1437,7 +1432,7 @@
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2">
         <v>27518</v>
@@ -1445,7 +1440,7 @@
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="2">
         <v>20982</v>
@@ -1453,7 +1448,7 @@
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="2">
         <v>27518</v>
@@ -1461,7 +1456,7 @@
     </row>
     <row r="24" spans="3:12">
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L24" s="2">
         <v>14649</v>
@@ -1469,7 +1464,7 @@
     </row>
     <row r="25" spans="3:12">
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L25" s="2">
         <v>25966</v>
@@ -1477,7 +1472,7 @@
     </row>
     <row r="26" spans="3:12">
       <c r="C26" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L26" s="2">
         <v>26629</v>
@@ -1485,7 +1480,7 @@
     </row>
     <row r="27" spans="3:12">
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L27" s="2">
         <v>27518</v>
@@ -1493,7 +1488,7 @@
     </row>
     <row r="28" spans="3:12">
       <c r="C28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L28" s="2">
         <v>26385</v>
@@ -1501,7 +1496,7 @@
     </row>
     <row r="29" spans="3:12">
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L29" s="2">
         <v>29579</v>
@@ -1509,7 +1504,7 @@
     </row>
     <row r="30" spans="3:12">
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L30" s="2">
         <v>25966</v>
@@ -1517,7 +1512,7 @@
     </row>
     <row r="31" spans="3:12">
       <c r="C31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L31" s="2">
         <v>26596</v>
@@ -1525,7 +1520,7 @@
     </row>
     <row r="32" spans="3:12">
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L32" s="2">
         <v>26853</v>
@@ -1533,7 +1528,7 @@
     </row>
     <row r="33" spans="3:12">
       <c r="C33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="2">
         <v>26258</v>
@@ -1541,7 +1536,7 @@
     </row>
     <row r="34" spans="3:12">
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34" s="2">
         <v>26339</v>
@@ -1549,7 +1544,7 @@
     </row>
     <row r="35" spans="3:12">
       <c r="C35" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L35" s="2">
         <v>26884</v>
@@ -1557,7 +1552,7 @@
     </row>
     <row r="36" spans="3:12">
       <c r="C36" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L36" s="2">
         <v>26526</v>
@@ -1565,7 +1560,7 @@
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L37" s="2">
         <v>26238</v>
@@ -1573,7 +1568,7 @@
     </row>
     <row r="38" spans="3:12">
       <c r="C38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L38" s="2">
         <v>14723</v>
@@ -1581,7 +1576,7 @@
     </row>
     <row r="39" spans="3:12">
       <c r="C39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L39" s="2">
         <v>26148</v>
@@ -1589,7 +1584,7 @@
     </row>
     <row r="40" spans="3:12">
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" s="2">
         <v>26385</v>
@@ -1597,7 +1592,7 @@
     </row>
     <row r="41" spans="3:12">
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L41" s="2">
         <v>26831</v>
@@ -1605,7 +1600,7 @@
     </row>
     <row r="42" spans="3:12">
       <c r="C42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L42" s="2">
         <v>21221</v>
@@ -1613,7 +1608,7 @@
     </row>
     <row r="43" spans="3:12">
       <c r="C43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L43" s="2">
         <v>26367</v>
@@ -1621,7 +1616,7 @@
     </row>
     <row r="44" spans="3:12">
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L44" s="2">
         <v>25971</v>
@@ -1629,7 +1624,7 @@
     </row>
     <row r="45" spans="3:12">
       <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="2">
         <v>26309</v>
@@ -1637,7 +1632,7 @@
     </row>
     <row r="46" spans="3:12">
       <c r="C46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L46" s="2">
         <v>21860</v>
@@ -1645,7 +1640,7 @@
     </row>
     <row r="47" spans="3:12">
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L47" s="2">
         <v>14187</v>
@@ -1653,7 +1648,7 @@
     </row>
     <row r="48" spans="3:12">
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L48" s="2">
         <v>14721</v>
@@ -1661,7 +1656,7 @@
     </row>
     <row r="49" spans="3:12">
       <c r="C49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="2">
         <v>14723</v>
@@ -1669,7 +1664,7 @@
     </row>
     <row r="50" spans="3:12">
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L50" s="2">
         <v>14631</v>
@@ -1677,7 +1672,7 @@
     </row>
     <row r="51" spans="3:12">
       <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="2">
         <v>14718</v>
@@ -1685,7 +1680,7 @@
     </row>
     <row r="52" spans="3:12">
       <c r="C52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L52" s="2">
         <v>26684</v>
@@ -1693,7 +1688,7 @@
     </row>
     <row r="53" spans="3:12">
       <c r="C53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L53" s="2">
         <v>14188</v>
@@ -1701,7 +1696,7 @@
     </row>
     <row r="54" spans="3:12">
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L54" s="2">
         <v>14633</v>
@@ -1709,7 +1704,7 @@
     </row>
     <row r="55" spans="3:12">
       <c r="C55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L55" s="2">
         <v>26284</v>
@@ -1717,7 +1712,7 @@
     </row>
     <row r="56" spans="3:12">
       <c r="C56" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L56" s="2">
         <v>26238</v>
@@ -1725,7 +1720,7 @@
     </row>
     <row r="57" spans="3:12">
       <c r="C57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L57" s="2">
         <v>26492</v>
@@ -1733,7 +1728,7 @@
     </row>
     <row r="58" spans="3:12">
       <c r="C58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L58" s="2">
         <v>26875</v>
@@ -1741,7 +1736,7 @@
     </row>
     <row r="59" spans="3:12">
       <c r="C59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L59" s="2">
         <v>27518</v>
@@ -1749,7 +1744,7 @@
     </row>
     <row r="60" spans="3:12">
       <c r="C60" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L60" s="2">
         <v>14639</v>
@@ -1757,7 +1752,7 @@
     </row>
     <row r="61" spans="3:12">
       <c r="C61" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L61" s="2">
         <v>24962</v>
@@ -1765,7 +1760,7 @@
     </row>
     <row r="62" spans="3:12">
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L62" s="2">
         <v>14640</v>
@@ -1773,7 +1768,7 @@
     </row>
     <row r="63" spans="3:12">
       <c r="C63" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L63" s="2">
         <v>26019</v>
@@ -1781,7 +1776,7 @@
     </row>
     <row r="64" spans="3:12">
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L64" s="2">
         <v>26019</v>
@@ -1789,7 +1784,7 @@
     </row>
     <row r="65" spans="3:12">
       <c r="C65" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L65" s="2">
         <v>25970</v>
@@ -1797,7 +1792,7 @@
     </row>
     <row r="66" spans="3:12">
       <c r="C66" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L66" s="3">
         <v>26885</v>
@@ -1805,7 +1800,7 @@
     </row>
     <row r="67" spans="3:12">
       <c r="C67" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L67" s="2">
         <v>26620</v>
@@ -1813,7 +1808,7 @@
     </row>
     <row r="68" spans="3:12">
       <c r="C68" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L68" s="3">
         <v>26885</v>
@@ -1821,7 +1816,7 @@
     </row>
     <row r="69" spans="3:12">
       <c r="C69" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L69" s="2">
         <v>25970</v>
@@ -1829,7 +1824,7 @@
     </row>
     <row r="70" spans="3:12">
       <c r="C70" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L70" s="2">
         <v>14650</v>
@@ -1837,7 +1832,7 @@
     </row>
     <row r="71" spans="3:12">
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L71" s="2">
         <v>14650</v>
@@ -1845,7 +1840,7 @@
     </row>
     <row r="72" spans="3:12">
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L72" s="2">
         <v>14633</v>
@@ -1853,7 +1848,7 @@
     </row>
     <row r="73" spans="3:12">
       <c r="C73" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L73" s="2">
         <v>14650</v>
@@ -1861,7 +1856,7 @@
     </row>
     <row r="74" spans="3:12">
       <c r="C74" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L74" s="2">
         <v>26444</v>

--- a/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
+++ b/pa-temp-fix-system.com/php/export/UpdatePaProduct.xlsx
@@ -15,13 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>amazonTraceMan</t>
-  </si>
-  <si>
-    <t>ceBillNo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>batchName</t>
   </si>
@@ -64,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -82,6 +76,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -89,7 +97,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -111,17 +119,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,18 +142,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,68 +175,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,19 +235,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,79 +379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,31 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,43 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,30 +426,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,6 +443,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,141 +511,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,28 +986,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="2" width="15.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.05" customWidth="1"/>
-    <col min="4" max="4" width="13.2416666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.1" customWidth="1"/>
-    <col min="6" max="6" width="41.5916666666667" customWidth="1"/>
-    <col min="7" max="7" width="16.4333333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.1" customWidth="1"/>
-    <col min="9" max="9" width="10.6" customWidth="1"/>
-    <col min="10" max="10" width="15.1833333333333" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="20.05" customWidth="1"/>
+    <col min="2" max="2" width="13.2416666666667" customWidth="1"/>
+    <col min="3" max="3" width="8.1" customWidth="1"/>
+    <col min="4" max="4" width="41.5916666666667" customWidth="1"/>
+    <col min="5" max="5" width="16.4333333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.1" customWidth="1"/>
+    <col min="7" max="7" width="10.6" customWidth="1"/>
+    <col min="8" max="8" width="15.1833333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,28 +1031,22 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="3:9">
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
